--- a/Annotations/New/Mistborn.xlsx
+++ b/Annotations/New/Mistborn.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\New\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="mistborn" sheetId="1" r:id="rId1"/>
@@ -1817,14 +1817,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P297"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H300" sqref="H300"/>
+      <selection pane="bottomLeft" activeCell="C285" sqref="C285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="49" style="2" customWidth="1"/>
     <col min="4" max="4" width="47" style="1" customWidth="1"/>
     <col min="5" max="5" width="42.88671875" style="2" customWidth="1"/>
@@ -1887,7 +1888,7 @@
     <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>0.89109088316923402</v>
+        <v>0.61513862820225551</v>
       </c>
       <c r="B2" s="2">
         <v>632</v>
@@ -1914,7 +1915,7 @@
     <row r="3" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88193567836122011</v>
+        <v>0.96867505015385813</v>
       </c>
       <c r="B3" s="2">
         <v>743</v>
@@ -1941,7 +1942,7 @@
     <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77343275737863071</v>
+        <v>0.22714144052217489</v>
       </c>
       <c r="B4" s="2">
         <v>458</v>
@@ -1968,7 +1969,7 @@
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11824594697559121</v>
+        <v>0.39421690210927873</v>
       </c>
       <c r="B5" s="2">
         <v>688</v>
@@ -1995,7 +1996,7 @@
     <row r="6" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9844682641238469E-2</v>
+        <v>0.45537510041396256</v>
       </c>
       <c r="B6" s="2">
         <v>456</v>
@@ -2019,7 +2020,7 @@
     <row r="7" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47792119709461522</v>
+        <v>0.29798868492062769</v>
       </c>
       <c r="B7" s="2">
         <v>664</v>
@@ -2046,7 +2047,7 @@
     <row r="8" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6462915723396105E-2</v>
+        <v>0.82379706262516494</v>
       </c>
       <c r="B8" s="2">
         <v>593</v>
@@ -2070,7 +2071,7 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31842831052910725</v>
+        <v>0.5406675090598777</v>
       </c>
       <c r="B9" s="2">
         <v>492</v>
@@ -2091,7 +2092,7 @@
     <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57271502178733547</v>
+        <v>0.32692845697838868</v>
       </c>
       <c r="B10" s="2">
         <v>572</v>
@@ -2115,7 +2116,7 @@
     <row r="11" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13381965771368109</v>
+        <v>0.78587866918963445</v>
       </c>
       <c r="B11" s="2">
         <v>473</v>
@@ -2136,7 +2137,7 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91579929916195479</v>
+        <v>0.89636513048203659</v>
       </c>
       <c r="B12" s="2">
         <v>490</v>
@@ -2160,7 +2161,7 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3023633910756266</v>
+        <v>0.62673095830700154</v>
       </c>
       <c r="B13" s="2">
         <v>713</v>
@@ -2181,7 +2182,7 @@
     <row r="14" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53260576226192313</v>
+        <v>0.80084782412828215</v>
       </c>
       <c r="B14" s="2">
         <v>737</v>
@@ -2205,7 +2206,7 @@
     <row r="15" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7780077530383176E-2</v>
+        <v>9.8507940084997414E-2</v>
       </c>
       <c r="B15" s="2">
         <v>507</v>
@@ -2226,7 +2227,7 @@
     <row r="16" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39511451211935433</v>
+        <v>0.95075936644222991</v>
       </c>
       <c r="B16" s="2">
         <v>647</v>
@@ -2247,7 +2248,7 @@
     <row r="17" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62098053344796822</v>
+        <v>0.49319035718413218</v>
       </c>
       <c r="B17" s="2">
         <v>649</v>
@@ -2271,7 +2272,7 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33544261172632661</v>
+        <v>0.38443578828765035</v>
       </c>
       <c r="B18" s="2">
         <v>578</v>
@@ -2292,7 +2293,7 @@
     <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31199793301187273</v>
+        <v>0.85004783905095249</v>
       </c>
       <c r="B19" s="2">
         <v>624</v>
@@ -2316,7 +2317,7 @@
     <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85116617118115534</v>
+        <v>0.25287451743642031</v>
       </c>
       <c r="B20" s="2">
         <v>602</v>
@@ -2337,7 +2338,7 @@
     <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2768506268975974E-2</v>
+        <v>0.34848007384314872</v>
       </c>
       <c r="B21" s="2">
         <v>684</v>
@@ -2361,7 +2362,7 @@
     <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83621686282015795</v>
+        <v>0.97944588264049182</v>
       </c>
       <c r="B22" s="2">
         <v>681</v>
@@ -2388,7 +2389,7 @@
     <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21258010383973114</v>
+        <v>0.72173339526282143</v>
       </c>
       <c r="B23" s="2">
         <v>526</v>
@@ -2412,7 +2413,7 @@
     <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80056183231579181</v>
+        <v>0.91021935375223895</v>
       </c>
       <c r="B24" s="2">
         <v>643</v>
@@ -2433,7 +2434,7 @@
     <row r="25" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5406932729062236</v>
+        <v>0.13665255597840165</v>
       </c>
       <c r="B25" s="2">
         <v>726</v>
@@ -2454,7 +2455,7 @@
     <row r="26" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4357435404498492</v>
+        <v>0.21277623988282857</v>
       </c>
       <c r="B26" s="2">
         <v>574</v>
@@ -2484,7 +2485,7 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9065250725591727</v>
+        <v>0.27452547462591714</v>
       </c>
       <c r="B27" s="2">
         <v>674</v>
@@ -2508,7 +2509,7 @@
     <row r="28" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27675945028098448</v>
+        <v>0.93278363093014938</v>
       </c>
       <c r="B28" s="2">
         <v>566</v>
@@ -2529,7 +2530,7 @@
     <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20588876993152039</v>
+        <v>0.97753418468580944</v>
       </c>
       <c r="B29" s="2">
         <v>550</v>
@@ -2556,7 +2557,7 @@
     <row r="30" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97034215209629937</v>
+        <v>0.72315766754617061</v>
       </c>
       <c r="B30" s="2">
         <v>725</v>
@@ -2577,7 +2578,7 @@
     <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79535050463244961</v>
+        <v>0.33025704701080039</v>
       </c>
       <c r="B31" s="2">
         <v>623</v>
@@ -2598,7 +2599,7 @@
     <row r="32" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22817511639723731</v>
+        <v>0.67146170945012473</v>
       </c>
       <c r="B32" s="2">
         <v>635</v>
@@ -2625,7 +2626,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22693474607911579</v>
+        <v>6.0347763992349979E-3</v>
       </c>
       <c r="B33" s="2">
         <v>622</v>
@@ -2652,7 +2653,7 @@
     <row r="34" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60256538319737885</v>
+        <v>0.72584020812415806</v>
       </c>
       <c r="B34" s="2">
         <v>679</v>
@@ -2679,7 +2680,7 @@
     <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67850379490482227</v>
+        <v>0.49979017199811837</v>
       </c>
       <c r="B35" s="2">
         <v>667</v>
@@ -2706,7 +2707,7 @@
     <row r="36" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99687821797292908</v>
+        <v>0.91955437804175844</v>
       </c>
       <c r="B36" s="2">
         <v>660</v>
@@ -2733,7 +2734,7 @@
     <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62200854600723932</v>
+        <v>0.26901533960871515</v>
       </c>
       <c r="B37" s="2">
         <v>719</v>
@@ -2757,7 +2758,7 @@
     <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61602037129764053</v>
+        <v>0.15781832326044887</v>
       </c>
       <c r="B38" s="2">
         <v>534</v>
@@ -2778,7 +2779,7 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35879321579542678</v>
+        <v>0.9826199315264148</v>
       </c>
       <c r="B39" s="2">
         <v>465</v>
@@ -2799,7 +2800,7 @@
     <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45141043655619562</v>
+        <v>0.60835105174094839</v>
       </c>
       <c r="B40" s="2">
         <v>626</v>
@@ -2823,7 +2824,7 @@
     <row r="41" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1453579440508368</v>
+        <v>0.89188245038399849</v>
       </c>
       <c r="B41" s="2">
         <v>561</v>
@@ -2847,7 +2848,7 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15762804117365214</v>
+        <v>0.50956244151177366</v>
       </c>
       <c r="B42" s="2">
         <v>537</v>
@@ -2868,7 +2869,7 @@
     <row r="43" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31437202051386404</v>
+        <v>4.4900964385261921E-2</v>
       </c>
       <c r="B43" s="2">
         <v>515</v>
@@ -2889,7 +2890,7 @@
     <row r="44" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74105174769193349</v>
+        <v>0.66309305411309782</v>
       </c>
       <c r="B44" s="2">
         <v>656</v>
@@ -2913,7 +2914,7 @@
     <row r="45" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58972795372800546</v>
+        <v>0.63633535615876247</v>
       </c>
       <c r="B45" s="2">
         <v>477</v>
@@ -2940,7 +2941,7 @@
     <row r="46" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12187401142294485</v>
+        <v>0.28145335142941197</v>
       </c>
       <c r="B46" s="2">
         <v>710</v>
@@ -2967,7 +2968,7 @@
     <row r="47" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68213120836584906</v>
+        <v>0.30109605111166615</v>
       </c>
       <c r="B47" s="2">
         <v>497</v>
@@ -2988,7 +2989,7 @@
     <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85416827587069777</v>
+        <v>0.5889485804715493</v>
       </c>
       <c r="B48" s="2">
         <v>682</v>
@@ -3012,7 +3013,7 @@
     <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4095791141405748</v>
+        <v>0.47030446580845153</v>
       </c>
       <c r="B49" s="2">
         <v>748</v>
@@ -3033,7 +3034,7 @@
     <row r="50" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71189071338389354</v>
+        <v>0.99605589548004247</v>
       </c>
       <c r="B50" s="2">
         <v>496</v>
@@ -3054,7 +3055,7 @@
     <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5433839895808793</v>
+        <v>0.22641919942349653</v>
       </c>
       <c r="B51" s="2">
         <v>700</v>
@@ -3078,7 +3079,7 @@
     <row r="52" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50161549906166492</v>
+        <v>0.98997251163917144</v>
       </c>
       <c r="B52" s="2">
         <v>711</v>
@@ -3102,7 +3103,7 @@
     <row r="53" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64518417642683989</v>
+        <v>0.17651008149261294</v>
       </c>
       <c r="B53" s="2">
         <v>735</v>
@@ -3126,7 +3127,7 @@
     <row r="54" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2298763213067273</v>
+        <v>0.93817358852220867</v>
       </c>
       <c r="B54" s="2">
         <v>529</v>
@@ -3150,7 +3151,7 @@
     <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52813600595024379</v>
+        <v>0.66012101744048124</v>
       </c>
       <c r="B55" s="2">
         <v>614</v>
@@ -3174,7 +3175,7 @@
     <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46563534658990713</v>
+        <v>6.2018618921608759E-2</v>
       </c>
       <c r="B56" s="2">
         <v>591</v>
@@ -3201,7 +3202,7 @@
     <row r="57" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87870194730225115</v>
+        <v>0.914131976006203</v>
       </c>
       <c r="B57" s="2">
         <v>657</v>
@@ -3228,7 +3229,7 @@
     <row r="58" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.198336228324417</v>
+        <v>0.46147829628362225</v>
       </c>
       <c r="B58" s="2">
         <v>559</v>
@@ -3252,7 +3253,7 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85054842356713833</v>
+        <v>0.95918881390858324</v>
       </c>
       <c r="B59" s="2">
         <v>715</v>
@@ -3273,7 +3274,7 @@
     <row r="60" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29880909844516057</v>
+        <v>0.21598301384537277</v>
       </c>
       <c r="B60" s="2">
         <v>692</v>
@@ -3297,7 +3298,7 @@
     <row r="61" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36874699511323872</v>
+        <v>0.21125440453448963</v>
       </c>
       <c r="B61" s="2">
         <v>571</v>
@@ -3321,7 +3322,7 @@
     <row r="62" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58557621223432621</v>
+        <v>0.50184484406236018</v>
       </c>
       <c r="B62" s="2">
         <v>613</v>
@@ -3345,7 +3346,7 @@
     <row r="63" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22006392671098496</v>
+        <v>0.62368762898952901</v>
       </c>
       <c r="B63" s="2">
         <v>494</v>
@@ -3369,7 +3370,7 @@
     <row r="64" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79332448434561087</v>
+        <v>9.8572434655622265E-2</v>
       </c>
       <c r="B64" s="2">
         <v>478</v>
@@ -3393,7 +3394,7 @@
     <row r="65" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2356533060740974</v>
+        <v>0.48118949478196393</v>
       </c>
       <c r="B65" s="2">
         <v>544</v>
@@ -3414,7 +3415,7 @@
     <row r="66" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()</f>
-        <v>0.48432973569572924</v>
+        <v>0.90818350853253738</v>
       </c>
       <c r="B66" s="2">
         <v>525</v>
@@ -3435,7 +3436,7 @@
     <row r="67" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67284830102677806</v>
+        <v>0.62892792773708728</v>
       </c>
       <c r="B67" s="2">
         <v>570</v>
@@ -3456,7 +3457,7 @@
     <row r="68" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98512810685070673</v>
+        <v>0.62328834945065592</v>
       </c>
       <c r="B68" s="2">
         <v>722</v>
@@ -3480,7 +3481,7 @@
     <row r="69" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53422890975846615</v>
+        <v>0.96261730336973961</v>
       </c>
       <c r="B69" s="2">
         <v>535</v>
@@ -3504,7 +3505,7 @@
     <row r="70" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61595371953996381</v>
+        <v>0.4072665611325933</v>
       </c>
       <c r="B70" s="2">
         <v>718</v>
@@ -3525,7 +3526,7 @@
     <row r="71" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39791011658210484</v>
+        <v>0.8377855415176213</v>
       </c>
       <c r="B71" s="2">
         <v>562</v>
@@ -3549,7 +3550,7 @@
     <row r="72" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2738839306976123</v>
+        <v>0.44227544522019524</v>
       </c>
       <c r="B72" s="2">
         <v>697</v>
@@ -3573,7 +3574,7 @@
     <row r="73" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96859792770460484</v>
+        <v>0.72286993130842925</v>
       </c>
       <c r="B73" s="2">
         <v>661</v>
@@ -3600,7 +3601,7 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74223163347583909</v>
+        <v>0.496757635294796</v>
       </c>
       <c r="B74" s="2">
         <v>479</v>
@@ -3624,7 +3625,7 @@
     <row r="75" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55482142464059014</v>
+        <v>0.6164487756757957</v>
       </c>
       <c r="B75" s="2">
         <v>514</v>
@@ -3648,7 +3649,7 @@
     <row r="76" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95940963163663129</v>
+        <v>3.1990411181790357E-3</v>
       </c>
       <c r="B76" s="2">
         <v>739</v>
@@ -3675,7 +3676,7 @@
     <row r="77" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10542382563351815</v>
+        <v>0.31309177777041386</v>
       </c>
       <c r="B77" s="2">
         <v>658</v>
@@ -3702,7 +3703,7 @@
     <row r="78" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77502602515194485</v>
+        <v>6.3492505439566083E-2</v>
       </c>
       <c r="B78" s="2">
         <v>706</v>
@@ -3723,7 +3724,7 @@
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36184172570295381</v>
+        <v>7.7898795707891044E-2</v>
       </c>
       <c r="B79" s="2">
         <v>675</v>
@@ -3747,7 +3748,7 @@
     <row r="80" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32747926774180824</v>
+        <v>0.9092018188803489</v>
       </c>
       <c r="B80" s="2">
         <v>552</v>
@@ -3771,7 +3772,7 @@
     <row r="81" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0235123843030944E-3</v>
+        <v>7.5779218418874028E-2</v>
       </c>
       <c r="B81" s="2">
         <v>639</v>
@@ -3795,7 +3796,7 @@
     <row r="82" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43740572766630981</v>
+        <v>0.2605815260405816</v>
       </c>
       <c r="B82" s="2">
         <v>611</v>
@@ -3819,7 +3820,7 @@
     <row r="83" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7556444773373967</v>
+        <v>7.9165724260815806E-2</v>
       </c>
       <c r="B83" s="2">
         <v>721</v>
@@ -3843,7 +3844,7 @@
     <row r="84" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72413735382983258</v>
+        <v>0.83867435268479384</v>
       </c>
       <c r="B84" s="2">
         <v>474</v>
@@ -3867,7 +3868,7 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34384591010307253</v>
+        <v>0.60303219414760734</v>
       </c>
       <c r="B85" s="2">
         <v>673</v>
@@ -3891,7 +3892,7 @@
     <row r="86" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67578141119430424</v>
+        <v>0.280410498662924</v>
       </c>
       <c r="B86" s="2">
         <v>638</v>
@@ -3918,7 +3919,7 @@
     <row r="87" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16384123614391877</v>
+        <v>0.41144836951452235</v>
       </c>
       <c r="B87" s="2">
         <v>654</v>
@@ -3942,7 +3943,7 @@
     <row r="88" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61645090714487238</v>
+        <v>0.29843803906602751</v>
       </c>
       <c r="B88" s="2">
         <v>659</v>
@@ -3963,7 +3964,7 @@
     <row r="89" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21785292554373026</v>
+        <v>6.1399937836525975E-2</v>
       </c>
       <c r="B89" s="2">
         <v>462</v>
@@ -3987,7 +3988,7 @@
     <row r="90" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98341752346566857</v>
+        <v>0.27801242726547382</v>
       </c>
       <c r="B90" s="2">
         <v>693</v>
@@ -4011,7 +4012,7 @@
     <row r="91" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16235568339246143</v>
+        <v>0.94848946456359884</v>
       </c>
       <c r="B91" s="2">
         <v>642</v>
@@ -4038,7 +4039,7 @@
     <row r="92" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99835089067229188</v>
+        <v>0.17901548722582394</v>
       </c>
       <c r="B92" s="2">
         <v>672</v>
@@ -4059,7 +4060,7 @@
     <row r="93" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.406583164471359</v>
+        <v>3.6863555932436287E-2</v>
       </c>
       <c r="B93" s="2">
         <v>607</v>
@@ -4086,7 +4087,7 @@
     <row r="94" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75756129567906783</v>
+        <v>0.32016872958577558</v>
       </c>
       <c r="B94" s="2">
         <v>646</v>
@@ -4110,7 +4111,7 @@
     <row r="95" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26039210914830235</v>
+        <v>0.65513237935994795</v>
       </c>
       <c r="B95" s="2">
         <v>633</v>
@@ -4134,7 +4135,7 @@
     <row r="96" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1695290392294453E-2</v>
+        <v>0.30028951625048805</v>
       </c>
       <c r="B96" s="2">
         <v>686</v>
@@ -4158,7 +4159,7 @@
     <row r="97" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41483571494438831</v>
+        <v>5.5806965499618388E-2</v>
       </c>
       <c r="B97" s="2">
         <v>620</v>
@@ -4179,7 +4180,7 @@
     <row r="98" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1827631294435117</v>
+        <v>8.7385002706075188E-3</v>
       </c>
       <c r="B98" s="2">
         <v>468</v>
@@ -4200,7 +4201,7 @@
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39864320383236174</v>
+        <v>0.58782396777422996</v>
       </c>
       <c r="B99" s="2">
         <v>503</v>
@@ -4224,7 +4225,7 @@
     <row r="100" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1965880463784475E-2</v>
+        <v>0.76248660789663869</v>
       </c>
       <c r="B100" s="2">
         <v>625</v>
@@ -4251,7 +4252,7 @@
     <row r="101" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2425574649069917</v>
+        <v>0.12762328167559056</v>
       </c>
       <c r="B101" s="2">
         <v>717</v>
@@ -4272,7 +4273,7 @@
     <row r="102" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94189220856723188</v>
+        <v>7.5061519453052283E-2</v>
       </c>
       <c r="B102" s="2">
         <v>663</v>
@@ -4299,7 +4300,7 @@
     <row r="103" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21009487021527773</v>
+        <v>0.19262021770362436</v>
       </c>
       <c r="B103" s="2">
         <v>467</v>
@@ -4320,7 +4321,7 @@
     <row r="104" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1055458432640237E-2</v>
+        <v>0.26804341557500921</v>
       </c>
       <c r="B104" s="2">
         <v>707</v>
@@ -4347,7 +4348,7 @@
     <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79372924264620037</v>
+        <v>9.3697255273610613E-2</v>
       </c>
       <c r="B105" s="2">
         <v>511</v>
@@ -4371,7 +4372,7 @@
     <row r="106" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62241297773347737</v>
+        <v>0.81661480967583666</v>
       </c>
       <c r="B106" s="2">
         <v>750</v>
@@ -4395,7 +4396,7 @@
     <row r="107" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73610548603862846</v>
+        <v>0.13948713956724956</v>
       </c>
       <c r="B107" s="2">
         <v>538</v>
@@ -4419,7 +4420,7 @@
     <row r="108" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86625197305372537</v>
+        <v>0.98454249339508204</v>
       </c>
       <c r="B108" s="2">
         <v>608</v>
@@ -4443,7 +4444,7 @@
     <row r="109" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30401307438326364</v>
+        <v>0.40725465456432852</v>
       </c>
       <c r="B109" s="2">
         <v>651</v>
@@ -4467,7 +4468,7 @@
     <row r="110" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32890581878149527</v>
+        <v>0.91477847450723349</v>
       </c>
       <c r="B110" s="2">
         <v>634</v>
@@ -4491,7 +4492,7 @@
     <row r="111" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7005067751924583</v>
+        <v>0.96693202142193047</v>
       </c>
       <c r="B111" s="2">
         <v>493</v>
@@ -4515,7 +4516,7 @@
     <row r="112" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70081282818931456</v>
+        <v>0.50306338116646254</v>
       </c>
       <c r="B112" s="2">
         <v>733</v>
@@ -4539,7 +4540,7 @@
     <row r="113" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70055614426855828</v>
+        <v>0.66219502236646022</v>
       </c>
       <c r="B113" s="2">
         <v>600</v>
@@ -4563,7 +4564,7 @@
     <row r="114" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74354845045960727</v>
+        <v>0.86258801085995962</v>
       </c>
       <c r="B114" s="2">
         <v>619</v>
@@ -4590,7 +4591,7 @@
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14302010308509694</v>
+        <v>0.70672300002904376</v>
       </c>
       <c r="B115" s="2">
         <v>533</v>
@@ -4614,7 +4615,7 @@
     <row r="116" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33879935487820945</v>
+        <v>0.20058046898973725</v>
       </c>
       <c r="B116" s="2">
         <v>486</v>
@@ -4638,7 +4639,7 @@
     <row r="117" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2599349166497462E-2</v>
+        <v>0.92052185634564887</v>
       </c>
       <c r="B117" s="2">
         <v>580</v>
@@ -4662,7 +4663,7 @@
     <row r="118" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64220119253043073</v>
+        <v>0.46607590461855797</v>
       </c>
       <c r="B118" s="2">
         <v>662</v>
@@ -4686,7 +4687,7 @@
     <row r="119" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55337617582332088</v>
+        <v>2.0828517379691824E-2</v>
       </c>
       <c r="B119" s="2">
         <v>475</v>
@@ -4707,7 +4708,7 @@
     <row r="120" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73376127394395985</v>
+        <v>0.14397754853873346</v>
       </c>
       <c r="B120" s="2">
         <v>690</v>
@@ -4731,7 +4732,7 @@
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5344420283057344</v>
+        <v>0.86872739470200333</v>
       </c>
       <c r="B121" s="2">
         <v>603</v>
@@ -4755,7 +4756,7 @@
     <row r="122" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88550167135877955</v>
+        <v>0.40529623280932969</v>
       </c>
       <c r="B122" s="2">
         <v>520</v>
@@ -4779,7 +4780,7 @@
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48013060112079353</v>
+        <v>0.67350955962942205</v>
       </c>
       <c r="B123" s="2">
         <v>648</v>
@@ -4803,7 +4804,7 @@
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73117001232680467</v>
+        <v>0.84576475511835791</v>
       </c>
       <c r="B124" s="2">
         <v>689</v>
@@ -4833,7 +4834,7 @@
     <row r="125" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14848543806837089</v>
+        <v>0.8837480320454203</v>
       </c>
       <c r="B125" s="2">
         <v>716</v>
@@ -4857,7 +4858,7 @@
     <row r="126" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32591104587834729</v>
+        <v>0.60164680705954798</v>
       </c>
       <c r="B126" s="2">
         <v>734</v>
@@ -4881,7 +4882,7 @@
     <row r="127" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40619984604983661</v>
+        <v>0.5177089363023426</v>
       </c>
       <c r="B127" s="2">
         <v>512</v>
@@ -4905,7 +4906,7 @@
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88990585850489368</v>
+        <v>6.3568261267620607E-2</v>
       </c>
       <c r="B128" s="2">
         <v>518</v>
@@ -4929,7 +4930,7 @@
     <row r="129" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81539123564834615</v>
+        <v>0.64125812219779543</v>
       </c>
       <c r="B129" s="2">
         <v>727</v>
@@ -4953,7 +4954,7 @@
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()</f>
-        <v>0.60047342791902103</v>
+        <v>0.95190036131319622</v>
       </c>
       <c r="B130" s="2">
         <v>587</v>
@@ -4977,7 +4978,7 @@
     <row r="131" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53103725319084705</v>
+        <v>0.30199384246965044</v>
       </c>
       <c r="B131" s="2">
         <v>599</v>
@@ -5001,7 +5002,7 @@
     <row r="132" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51880025437776534</v>
+        <v>0.71867315004371535</v>
       </c>
       <c r="B132" s="2">
         <v>617</v>
@@ -5022,7 +5023,7 @@
     <row r="133" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73597467438723585</v>
+        <v>0.21174498530022612</v>
       </c>
       <c r="B133" s="2">
         <v>637</v>
@@ -5049,7 +5050,7 @@
     <row r="134" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65933704648065594</v>
+        <v>0.49053334871471987</v>
       </c>
       <c r="B134" s="2">
         <v>645</v>
@@ -5073,7 +5074,7 @@
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87509468973027593</v>
+        <v>0.60352163935651326</v>
       </c>
       <c r="B135" s="2">
         <v>531</v>
@@ -5097,7 +5098,7 @@
     <row r="136" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85399271114135411</v>
+        <v>0.94037770182981251</v>
       </c>
       <c r="B136" s="2">
         <v>676</v>
@@ -5121,7 +5122,7 @@
     <row r="137" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35615600284733395</v>
+        <v>0.81613838528724458</v>
       </c>
       <c r="B137" s="2">
         <v>683</v>
@@ -5142,7 +5143,7 @@
     <row r="138" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.61361113519716348</v>
+        <v>0.44403466923684032</v>
       </c>
       <c r="B138" s="2">
         <v>605</v>
@@ -5166,7 +5167,7 @@
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32372138904688819</v>
+        <v>0.63525222590279995</v>
       </c>
       <c r="B139" s="2">
         <v>491</v>
@@ -5193,7 +5194,7 @@
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51116884165032517</v>
+        <v>0.58148034118816627</v>
       </c>
       <c r="B140" s="2">
         <v>714</v>
@@ -5220,7 +5221,7 @@
     <row r="141" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91392752015621037</v>
+        <v>0.12125422118175766</v>
       </c>
       <c r="B141" s="2">
         <v>616</v>
@@ -5247,7 +5248,7 @@
     <row r="142" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72171861018707795</v>
+        <v>0.6447300405070453</v>
       </c>
       <c r="B142" s="2">
         <v>521</v>
@@ -5274,7 +5275,7 @@
     <row r="143" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80670185165815689</v>
+        <v>0.40477070770871293</v>
       </c>
       <c r="B143" s="2">
         <v>631</v>
@@ -5301,7 +5302,7 @@
     <row r="144" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8.2464123027202296E-2</v>
+        <v>6.6303708490149993E-2</v>
       </c>
       <c r="B144" s="2">
         <v>557</v>
@@ -5325,7 +5326,7 @@
     <row r="145" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48477720954605552</v>
+        <v>0.70816139913264564</v>
       </c>
       <c r="B145" s="2">
         <v>551</v>
@@ -5349,7 +5350,7 @@
     <row r="146" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36933318675406801</v>
+        <v>0.49785824225950637</v>
       </c>
       <c r="B146" s="2">
         <v>541</v>
@@ -5376,7 +5377,7 @@
     <row r="147" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53462291102701942</v>
+        <v>0.92984578084689351</v>
       </c>
       <c r="B147" s="2">
         <v>671</v>
@@ -5403,7 +5404,7 @@
     <row r="148" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8882231268838847E-2</v>
+        <v>0.82346435283002239</v>
       </c>
       <c r="B148" s="2">
         <v>495</v>
@@ -5430,7 +5431,7 @@
     <row r="149" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18384757685842879</v>
+        <v>0.89892858705124046</v>
       </c>
       <c r="B149" s="2">
         <v>564</v>
@@ -5457,7 +5458,7 @@
     <row r="150" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76014911073602121</v>
+        <v>0.63381030523056536</v>
       </c>
       <c r="B150" s="2">
         <v>641</v>
@@ -5481,7 +5482,7 @@
     <row r="151" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74160795208863595</v>
+        <v>0.75713375272633354</v>
       </c>
       <c r="B151" s="2">
         <v>556</v>
@@ -5508,7 +5509,7 @@
     <row r="152" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42637633702376276</v>
+        <v>0.58809920627726875</v>
       </c>
       <c r="B152" s="2">
         <v>548</v>
@@ -5535,7 +5536,7 @@
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.659537152650814E-2</v>
+        <v>0.66566619442794117</v>
       </c>
       <c r="B153" s="2">
         <v>621</v>
@@ -5559,7 +5560,7 @@
     <row r="154" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57488710171658131</v>
+        <v>0.4527418524443414</v>
       </c>
       <c r="B154" s="2">
         <v>553</v>
@@ -5586,7 +5587,7 @@
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75647372543473124</v>
+        <v>0.75242188002307897</v>
       </c>
       <c r="B155" s="2">
         <v>500</v>
@@ -5607,7 +5608,7 @@
     <row r="156" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56755141790002972</v>
+        <v>0.75688733891437376</v>
       </c>
       <c r="B156" s="2">
         <v>668</v>
@@ -5631,7 +5632,7 @@
     <row r="157" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.3883652583708548E-2</v>
+        <v>0.39998577130854418</v>
       </c>
       <c r="B157" s="2">
         <v>595</v>
@@ -5655,7 +5656,7 @@
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19009969471470434</v>
+        <v>9.0799557880753223E-2</v>
       </c>
       <c r="B158" s="2">
         <v>576</v>
@@ -5676,7 +5677,7 @@
     <row r="159" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93078868937091486</v>
+        <v>0.1963735008726033</v>
       </c>
       <c r="B159" s="2">
         <v>505</v>
@@ -5700,7 +5701,7 @@
     <row r="160" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84846938266105709</v>
+        <v>0.80342043265686036</v>
       </c>
       <c r="B160" s="2">
         <v>563</v>
@@ -5721,7 +5722,7 @@
     <row r="161" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91970675945408853</v>
+        <v>0.3207117891154071</v>
       </c>
       <c r="B161" s="2">
         <v>701</v>
@@ -5748,7 +5749,7 @@
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37364440796406984</v>
+        <v>6.864656934458746E-2</v>
       </c>
       <c r="B162" s="2">
         <v>730</v>
@@ -5772,7 +5773,7 @@
     <row r="163" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39381847569783957</v>
+        <v>0.26846518744388592</v>
       </c>
       <c r="B163" s="2">
         <v>568</v>
@@ -5796,7 +5797,7 @@
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4241560817893405</v>
+        <v>0.64219028074708651</v>
       </c>
       <c r="B164" s="2">
         <v>644</v>
@@ -5820,7 +5821,7 @@
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18960060890208763</v>
+        <v>6.7278444097048529E-2</v>
       </c>
       <c r="B165" s="2">
         <v>489</v>
@@ -5847,7 +5848,7 @@
     <row r="166" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94750822884937758</v>
+        <v>0.62950550010183826</v>
       </c>
       <c r="B166" s="2">
         <v>669</v>
@@ -5868,7 +5869,7 @@
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55788593002741727</v>
+        <v>0.75530844509739159</v>
       </c>
       <c r="B167" s="2">
         <v>589</v>
@@ -5895,7 +5896,7 @@
     <row r="168" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15087721869798576</v>
+        <v>0.44375392750423648</v>
       </c>
       <c r="B168" s="2">
         <v>604</v>
@@ -5919,7 +5920,7 @@
     <row r="169" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19145665038930892</v>
+        <v>0.86771272884954476</v>
       </c>
       <c r="B169" s="2">
         <v>485</v>
@@ -5943,7 +5944,7 @@
     <row r="170" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30487633112932566</v>
+        <v>0.10491817696282912</v>
       </c>
       <c r="B170" s="2">
         <v>655</v>
@@ -5967,7 +5968,7 @@
     <row r="171" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26523532856814813</v>
+        <v>0.58735817152864289</v>
       </c>
       <c r="B171" s="2">
         <v>590</v>
@@ -5991,7 +5992,7 @@
     <row r="172" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23332913089464813</v>
+        <v>0.30860400505108254</v>
       </c>
       <c r="B172" s="2">
         <v>652</v>
@@ -6012,7 +6013,7 @@
     <row r="173" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98689937631882119</v>
+        <v>0.33584526762230327</v>
       </c>
       <c r="B173" s="2">
         <v>650</v>
@@ -6036,7 +6037,7 @@
     <row r="174" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.7943721072333827E-2</v>
+        <v>0.24415996524756922</v>
       </c>
       <c r="B174" s="2">
         <v>560</v>
@@ -6060,7 +6061,7 @@
     <row r="175" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40331100907127759</v>
+        <v>0.76104392436633228</v>
       </c>
       <c r="B175" s="2">
         <v>653</v>
@@ -6087,7 +6088,7 @@
     <row r="176" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94590396897956186</v>
+        <v>0.74585334431464723</v>
       </c>
       <c r="B176" s="2">
         <v>670</v>
@@ -6108,7 +6109,7 @@
     <row r="177" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90682035703698294</v>
+        <v>0.99228051617645585</v>
       </c>
       <c r="B177" s="2">
         <v>499</v>
@@ -6132,7 +6133,7 @@
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71483930361822523</v>
+        <v>0.25573260668747577</v>
       </c>
       <c r="B178" s="2">
         <v>627</v>
@@ -6156,7 +6157,7 @@
     <row r="179" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58009027644377908</v>
+        <v>0.83458221680051858</v>
       </c>
       <c r="B179" s="2">
         <v>732</v>
@@ -6183,7 +6184,7 @@
     <row r="180" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3596450151786037</v>
+        <v>0.9703247118233751</v>
       </c>
       <c r="B180" s="2">
         <v>567</v>
@@ -6210,7 +6211,7 @@
     <row r="181" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46627531433447122</v>
+        <v>0.43784844366587172</v>
       </c>
       <c r="B181" s="2">
         <v>640</v>
@@ -6237,7 +6238,7 @@
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17433135384397636</v>
+        <v>0.32182339947378913</v>
       </c>
       <c r="B182" s="2">
         <v>519</v>
@@ -6261,7 +6262,7 @@
     <row r="183" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92092841698364147</v>
+        <v>0.23715984967291737</v>
       </c>
       <c r="B183" s="2">
         <v>517</v>
@@ -6282,7 +6283,7 @@
     <row r="184" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54446781964521174</v>
+        <v>0.23586777338602849</v>
       </c>
       <c r="B184" s="2">
         <v>555</v>
@@ -6306,7 +6307,7 @@
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32393453729943933</v>
+        <v>0.36588236195647039</v>
       </c>
       <c r="B185" s="2">
         <v>532</v>
@@ -6330,7 +6331,7 @@
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79811361967994421</v>
+        <v>3.3334135740117454E-2</v>
       </c>
       <c r="B186" s="2">
         <v>501</v>
@@ -6354,7 +6355,7 @@
     <row r="187" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94099651318740973</v>
+        <v>2.7729672883323508E-2</v>
       </c>
       <c r="B187" s="2">
         <v>598</v>
@@ -6381,7 +6382,7 @@
     <row r="188" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57878803530955147</v>
+        <v>0.10935886006530615</v>
       </c>
       <c r="B188" s="2">
         <v>565</v>
@@ -6402,7 +6403,7 @@
     <row r="189" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67215739117512741</v>
+        <v>0.79901683075951813</v>
       </c>
       <c r="B189" s="2">
         <v>585</v>
@@ -6423,7 +6424,7 @@
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25804262947101986</v>
+        <v>0.39525395427095056</v>
       </c>
       <c r="B190" s="2">
         <v>745</v>
@@ -6447,7 +6448,7 @@
     <row r="191" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93978243080499424</v>
+        <v>1.671444979213399E-2</v>
       </c>
       <c r="B191" s="2">
         <v>463</v>
@@ -6468,7 +6469,7 @@
     <row r="192" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.1235725283222622E-2</v>
+        <v>0.17430554939115772</v>
       </c>
       <c r="B192" s="2">
         <v>747</v>
@@ -6489,7 +6490,7 @@
     <row r="193" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2372253099740157</v>
+        <v>0.14001426162001807</v>
       </c>
       <c r="B193" s="2">
         <v>476</v>
@@ -6513,7 +6514,7 @@
     <row r="194" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()</f>
-        <v>0.57860201387863486</v>
+        <v>0.26818991672023207</v>
       </c>
       <c r="B194" s="2">
         <v>592</v>
@@ -6540,7 +6541,7 @@
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26372575902443851</v>
+        <v>0.81257067505783109</v>
       </c>
       <c r="B195" s="2">
         <v>480</v>
@@ -6561,7 +6562,7 @@
     <row r="196" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86289857152704319</v>
+        <v>0.83761417225243062</v>
       </c>
       <c r="B196" s="2">
         <v>666</v>
@@ -6585,7 +6586,7 @@
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58041911968537929</v>
+        <v>0.72641727683116863</v>
       </c>
       <c r="B197" s="2">
         <v>687</v>
@@ -6609,7 +6610,7 @@
     <row r="198" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.60553217595905118</v>
+        <v>0.98234228608095064</v>
       </c>
       <c r="B198" s="2">
         <v>554</v>
@@ -6636,7 +6637,7 @@
     <row r="199" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13555421142624402</v>
+        <v>0.54152444347221951</v>
       </c>
       <c r="B199" s="2">
         <v>597</v>
@@ -6657,7 +6658,7 @@
     <row r="200" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.72824919152734913</v>
+        <v>9.9101034594730741E-2</v>
       </c>
       <c r="B200" s="2">
         <v>729</v>
@@ -6681,7 +6682,7 @@
     <row r="201" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58466174511300673</v>
+        <v>0.21046760633157191</v>
       </c>
       <c r="B201" s="2">
         <v>724</v>
@@ -6705,7 +6706,7 @@
     <row r="202" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12150160593786108</v>
+        <v>0.22393988704722423</v>
       </c>
       <c r="B202" s="2">
         <v>506</v>
@@ -6732,7 +6733,7 @@
     <row r="203" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49024207037603018</v>
+        <v>0.84929824532810549</v>
       </c>
       <c r="B203" s="2">
         <v>471</v>
@@ -6753,7 +6754,7 @@
     <row r="204" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10875936403309827</v>
+        <v>0.33677797527136233</v>
       </c>
       <c r="B204" s="2">
         <v>749</v>
@@ -6774,7 +6775,7 @@
     <row r="205" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6.7598111578439979E-2</v>
+        <v>0.92409857194537426</v>
       </c>
       <c r="B205" s="2">
         <v>528</v>
@@ -6798,7 +6799,7 @@
     <row r="206" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63316836500483797</v>
+        <v>0.70514824913604324</v>
       </c>
       <c r="B206" s="2">
         <v>744</v>
@@ -6822,7 +6823,7 @@
     <row r="207" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.843219726707058E-2</v>
+        <v>0.95681449680636066</v>
       </c>
       <c r="B207" s="2">
         <v>630</v>
@@ -6849,7 +6850,7 @@
     <row r="208" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28208562677044391</v>
+        <v>0.34649175129182663</v>
       </c>
       <c r="B208" s="2">
         <v>740</v>
@@ -6873,7 +6874,7 @@
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.65711704791833692</v>
+        <v>0.74563444977456983</v>
       </c>
       <c r="B209" s="2">
         <v>746</v>
@@ -6897,7 +6898,7 @@
     <row r="210" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.69150129345415134</v>
+        <v>0.55283947970642533</v>
       </c>
       <c r="B210" s="2">
         <v>547</v>
@@ -6921,7 +6922,7 @@
     <row r="211" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35679001415371547</v>
+        <v>0.76320531282465287</v>
       </c>
       <c r="B211" s="2">
         <v>472</v>
@@ -6945,7 +6946,7 @@
     <row r="212" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68670097046379197</v>
+        <v>0.58239662472717879</v>
       </c>
       <c r="B212" s="2">
         <v>698</v>
@@ -6966,7 +6967,7 @@
     <row r="213" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91979630359126985</v>
+        <v>0.82194578069287683</v>
       </c>
       <c r="B213" s="2">
         <v>459</v>
@@ -6990,7 +6991,7 @@
     <row r="214" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.57916908972039727</v>
+        <v>0.56386189523343011</v>
       </c>
       <c r="B214" s="2">
         <v>510</v>
@@ -7011,7 +7012,7 @@
     <row r="215" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35583173508629762</v>
+        <v>0.27188401285484398</v>
       </c>
       <c r="B215" s="2">
         <v>584</v>
@@ -7041,7 +7042,7 @@
     <row r="216" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5600812229008969</v>
+        <v>0.79516086580331125</v>
       </c>
       <c r="B216" s="2">
         <v>482</v>
@@ -7065,7 +7066,7 @@
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.52656352855851751</v>
+        <v>0.18329291782281321</v>
       </c>
       <c r="B217" s="2">
         <v>487</v>
@@ -7089,7 +7090,7 @@
     <row r="218" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25093090861369372</v>
+        <v>3.9116947314706163E-2</v>
       </c>
       <c r="B218" s="2">
         <v>509</v>
@@ -7116,7 +7117,7 @@
     <row r="219" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41493393665696132</v>
+        <v>1.9890224544273694E-2</v>
       </c>
       <c r="B219" s="2">
         <v>665</v>
@@ -7143,7 +7144,7 @@
     <row r="220" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96288500351240114</v>
+        <v>0.41841159961638497</v>
       </c>
       <c r="B220" s="2">
         <v>738</v>
@@ -7164,7 +7165,7 @@
     <row r="221" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28124951955942079</v>
+        <v>0.45892205354275928</v>
       </c>
       <c r="B221" s="2">
         <v>522</v>
@@ -7188,7 +7189,7 @@
     <row r="222" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18057553611970012</v>
+        <v>0.25609552670649027</v>
       </c>
       <c r="B222" s="2">
         <v>483</v>
@@ -7209,7 +7210,7 @@
     <row r="223" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.5151844979457354E-2</v>
+        <v>0.23478994764143613</v>
       </c>
       <c r="B223" s="2">
         <v>609</v>
@@ -7236,7 +7237,7 @@
     <row r="224" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7.8787171458816863E-2</v>
+        <v>0.42249607708606285</v>
       </c>
       <c r="B224" s="2">
         <v>618</v>
@@ -7260,7 +7261,7 @@
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31577201895760454</v>
+        <v>0.71339196650924208</v>
       </c>
       <c r="B225" s="2">
         <v>586</v>
@@ -7284,7 +7285,7 @@
     <row r="226" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90448599992511847</v>
+        <v>0.42416291648854432</v>
       </c>
       <c r="B226" s="2">
         <v>575</v>
@@ -7308,7 +7309,7 @@
     <row r="227" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4.2369239334464015E-2</v>
+        <v>0.40453632825835772</v>
       </c>
       <c r="B227" s="2">
         <v>582</v>
@@ -7332,7 +7333,7 @@
     <row r="228" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34694091096183521</v>
+        <v>0.98413050074041197</v>
       </c>
       <c r="B228" s="2">
         <v>704</v>
@@ -7356,7 +7357,7 @@
     <row r="229" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22033829663287707</v>
+        <v>0.69239692770481742</v>
       </c>
       <c r="B229" s="2">
         <v>549</v>
@@ -7383,7 +7384,7 @@
     <row r="230" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5848911162202648</v>
+        <v>0.31719849434545988</v>
       </c>
       <c r="B230" s="2">
         <v>583</v>
@@ -7413,7 +7414,7 @@
     <row r="231" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6.0331699693133456E-2</v>
+        <v>0.17335325264783075</v>
       </c>
       <c r="B231" s="2">
         <v>527</v>
@@ -7440,7 +7441,7 @@
     <row r="232" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59348718121315791</v>
+        <v>0.54225558968400034</v>
       </c>
       <c r="B232" s="2">
         <v>610</v>
@@ -7464,7 +7465,7 @@
     <row r="233" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66303091390868951</v>
+        <v>0.3633130169783122</v>
       </c>
       <c r="B233" s="2">
         <v>736</v>
@@ -7491,7 +7492,7 @@
     <row r="234" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74696806816722128</v>
+        <v>7.3517928507591868E-2</v>
       </c>
       <c r="B234" s="2">
         <v>636</v>
@@ -7515,7 +7516,7 @@
     <row r="235" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.65011245096009573</v>
+        <v>0.76095808573477308</v>
       </c>
       <c r="B235" s="2">
         <v>536</v>
@@ -7542,7 +7543,7 @@
     <row r="236" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40580972239094393</v>
+        <v>4.92635388271353E-2</v>
       </c>
       <c r="B236" s="2">
         <v>457</v>
@@ -7563,7 +7564,7 @@
     <row r="237" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20128530242930809</v>
+        <v>0.56318364791494724</v>
       </c>
       <c r="B237" s="2">
         <v>481</v>
@@ -7584,7 +7585,7 @@
     <row r="238" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50450934304520034</v>
+        <v>0.2823343949350744</v>
       </c>
       <c r="B238" s="2">
         <v>545</v>
@@ -7608,7 +7609,7 @@
     <row r="239" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.69657663266425829</v>
+        <v>0.67013347717936889</v>
       </c>
       <c r="B239" s="2">
         <v>524</v>
@@ -7635,7 +7636,7 @@
     <row r="240" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6391007124333461</v>
+        <v>0.10138088539636492</v>
       </c>
       <c r="B240" s="2">
         <v>699</v>
@@ -7656,7 +7657,7 @@
     <row r="241" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43043955612634388</v>
+        <v>0.23499887560939992</v>
       </c>
       <c r="B241" s="2">
         <v>596</v>
@@ -7680,7 +7681,7 @@
     <row r="242" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28518405374499911</v>
+        <v>0.66655217123692845</v>
       </c>
       <c r="B242" s="2">
         <v>540</v>
@@ -7704,7 +7705,7 @@
     <row r="243" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.1972067729765454E-2</v>
+        <v>0.30846892686956429</v>
       </c>
       <c r="B243" s="2">
         <v>523</v>
@@ -7728,7 +7729,7 @@
     <row r="244" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7.9266675314287771E-2</v>
+        <v>0.63231005338268342</v>
       </c>
       <c r="B244" s="2">
         <v>628</v>
@@ -7755,7 +7756,7 @@
     <row r="245" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43716549843104302</v>
+        <v>5.5073440964738207E-2</v>
       </c>
       <c r="B245" s="2">
         <v>508</v>
@@ -7776,7 +7777,7 @@
     <row r="246" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30806539834745739</v>
+        <v>9.2905043433179069E-3</v>
       </c>
       <c r="B246" s="2">
         <v>573</v>
@@ -7800,7 +7801,7 @@
     <row r="247" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.60016957587345698</v>
+        <v>0.40172106709783306</v>
       </c>
       <c r="B247" s="2">
         <v>542</v>
@@ -7824,7 +7825,7 @@
     <row r="248" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50360503605431184</v>
+        <v>1.0510217800282828E-2</v>
       </c>
       <c r="B248" s="2">
         <v>530</v>
@@ -7845,7 +7846,7 @@
     <row r="249" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56929161308800358</v>
+        <v>0.19824551856770245</v>
       </c>
       <c r="B249" s="2">
         <v>615</v>
@@ -7869,7 +7870,7 @@
     <row r="250" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61063804850509551</v>
+        <v>0.93051833399993522</v>
       </c>
       <c r="B250" s="2">
         <v>470</v>
@@ -7890,7 +7891,7 @@
     <row r="251" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10365232942505798</v>
+        <v>0.64135062532086551</v>
       </c>
       <c r="B251" s="2">
         <v>612</v>
@@ -7914,7 +7915,7 @@
     <row r="252" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54438446053768075</v>
+        <v>0.6018647364379146</v>
       </c>
       <c r="B252" s="2">
         <v>720</v>
@@ -7935,7 +7936,7 @@
     <row r="253" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1453846651862073</v>
+        <v>0.57248693448817156</v>
       </c>
       <c r="B253" s="2">
         <v>680</v>
@@ -7959,7 +7960,7 @@
     <row r="254" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44544550733905552</v>
+        <v>0.65217861100219077</v>
       </c>
       <c r="B254" s="2">
         <v>723</v>
@@ -7980,7 +7981,7 @@
     <row r="255" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6947731067592342</v>
+        <v>0.1261953778888073</v>
       </c>
       <c r="B255" s="2">
         <v>484</v>
@@ -8004,7 +8005,7 @@
     <row r="256" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49719529200505863</v>
+        <v>5.2275817011859127E-2</v>
       </c>
       <c r="B256" s="2">
         <v>488</v>
@@ -8028,7 +8029,7 @@
     <row r="257" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11210615267885315</v>
+        <v>1.7672025662768931E-2</v>
       </c>
       <c r="B257" s="2">
         <v>594</v>
@@ -8055,7 +8056,7 @@
     <row r="258" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <f t="shared" ref="A258:A297" ca="1" si="4">RAND()</f>
-        <v>0.4911781803383668</v>
+        <v>1.6133334685119238E-2</v>
       </c>
       <c r="B258" s="2">
         <v>579</v>
@@ -8079,7 +8080,7 @@
     <row r="259" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.94629055403208762</v>
+        <v>0.21319751654778185</v>
       </c>
       <c r="B259" s="2">
         <v>702</v>
@@ -8100,7 +8101,7 @@
     <row r="260" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20848870582624912</v>
+        <v>0.49942182375426758</v>
       </c>
       <c r="B260" s="2">
         <v>751</v>
@@ -8124,7 +8125,7 @@
     <row r="261" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30292918777616618</v>
+        <v>0.20009427543339664</v>
       </c>
       <c r="B261" s="2">
         <v>695</v>
@@ -8148,7 +8149,7 @@
     <row r="262" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.70745195230614433</v>
+        <v>0.46777262526721197</v>
       </c>
       <c r="B262" s="2">
         <v>708</v>
@@ -8172,7 +8173,7 @@
     <row r="263" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3222667862684192</v>
+        <v>0.35785287576031466</v>
       </c>
       <c r="B263" s="2">
         <v>601</v>
@@ -8196,7 +8197,7 @@
     <row r="264" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2447711166366271</v>
+        <v>0.97155703345346789</v>
       </c>
       <c r="B264" s="2">
         <v>606</v>
@@ -8220,7 +8221,7 @@
     <row r="265" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.96019913601185491</v>
+        <v>0.915037125863011</v>
       </c>
       <c r="B265" s="2">
         <v>469</v>
@@ -8241,7 +8242,7 @@
     <row r="266" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.38616646133996502</v>
+        <v>0.44029355749584054</v>
       </c>
       <c r="B266" s="2">
         <v>504</v>
@@ -8265,7 +8266,7 @@
     <row r="267" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.40408035110959517</v>
+        <v>0.71011936018126831</v>
       </c>
       <c r="B267" s="2">
         <v>705</v>
@@ -8289,7 +8290,7 @@
     <row r="268" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0961272450593675E-2</v>
+        <v>0.70046285485581639</v>
       </c>
       <c r="B268" s="2">
         <v>678</v>
@@ -8316,7 +8317,7 @@
     <row r="269" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.65075900490498595</v>
+        <v>0.60304198512312479</v>
       </c>
       <c r="B269" s="2">
         <v>461</v>
@@ -8340,7 +8341,7 @@
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.37672822734647204</v>
+        <v>0.23763319564712326</v>
       </c>
       <c r="B270" s="2">
         <v>588</v>
@@ -8364,7 +8365,7 @@
     <row r="271" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.48789132246961764</v>
+        <v>0.11782821194575188</v>
       </c>
       <c r="B271" s="2">
         <v>709</v>
@@ -8388,7 +8389,7 @@
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.89424067552575004</v>
+        <v>3.0298498687735154E-2</v>
       </c>
       <c r="B272" s="2">
         <v>502</v>
@@ -8412,7 +8413,7 @@
     <row r="273" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26944958244532591</v>
+        <v>0.44900535431252553</v>
       </c>
       <c r="B273" s="2">
         <v>460</v>
@@ -8439,7 +8440,7 @@
     <row r="274" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.97511996036575455</v>
+        <v>0.79120283866117902</v>
       </c>
       <c r="B274" s="2">
         <v>546</v>
@@ -8466,7 +8467,7 @@
     <row r="275" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.82733505932274953</v>
+        <v>0.24044922938776037</v>
       </c>
       <c r="B275" s="2">
         <v>581</v>
@@ -8490,7 +8491,7 @@
     <row r="276" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.83291137494304945</v>
+        <v>0.39342438217916298</v>
       </c>
       <c r="B276" s="2">
         <v>728</v>
@@ -8517,7 +8518,7 @@
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.75607536877348147</v>
+        <v>0.29302808255743362</v>
       </c>
       <c r="B277" s="2">
         <v>466</v>
@@ -8538,7 +8539,7 @@
     <row r="278" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3.2406027719031671E-2</v>
+        <v>0.99689509843721191</v>
       </c>
       <c r="B278" s="2">
         <v>569</v>
@@ -8562,7 +8563,7 @@
     <row r="279" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.57891934792549937</v>
+        <v>0.38442086450560731</v>
       </c>
       <c r="B279" s="2">
         <v>558</v>
@@ -8586,7 +8587,7 @@
     <row r="280" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.7378782483672145</v>
+        <v>0.45994647681322443</v>
       </c>
       <c r="B280" s="2">
         <v>742</v>
@@ -8610,7 +8611,7 @@
     <row r="281" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11159044275908947</v>
+        <v>0.36738423733413683</v>
       </c>
       <c r="B281" s="2">
         <v>694</v>
@@ -8634,7 +8635,7 @@
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.36289135447646659</v>
+        <v>0.76225167818616768</v>
       </c>
       <c r="B282" s="2">
         <v>731</v>
@@ -8658,7 +8659,7 @@
     <row r="283" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.43131509650198763</v>
+        <v>0.71867163773805121</v>
       </c>
       <c r="B283" s="2">
         <v>696</v>
@@ -8682,7 +8683,7 @@
     <row r="284" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.62242749038518719</v>
+        <v>0.65491627741283409</v>
       </c>
       <c r="B284" s="2">
         <v>703</v>
@@ -8706,7 +8707,7 @@
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.7819639992613705</v>
+        <v>0.76788425210993272</v>
       </c>
       <c r="B285" s="2">
         <v>741</v>
@@ -8730,7 +8731,7 @@
     <row r="286" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28826563484316459</v>
+        <v>0.394523291212866</v>
       </c>
       <c r="B286" s="2">
         <v>677</v>
@@ -8757,7 +8758,7 @@
     <row r="287" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.45240136033861944</v>
+        <v>9.8791746651646362E-3</v>
       </c>
       <c r="B287" s="2">
         <v>691</v>
@@ -8784,7 +8785,7 @@
     <row r="288" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.9877584408099972</v>
+        <v>0.67366484588054998</v>
       </c>
       <c r="B288" s="2">
         <v>629</v>
@@ -8811,7 +8812,7 @@
     <row r="289" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>2.6743115561935316E-2</v>
+        <v>0.73029415762071148</v>
       </c>
       <c r="B289" s="2">
         <v>712</v>
@@ -8835,7 +8836,7 @@
     <row r="290" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.98708785012422795</v>
+        <v>0.84385231167350039</v>
       </c>
       <c r="B290" s="2">
         <v>464</v>
@@ -8859,7 +8860,7 @@
     <row r="291" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.97874024582570784</v>
+        <v>0.85383843772195001</v>
       </c>
       <c r="B291" s="2">
         <v>498</v>
@@ -8880,7 +8881,7 @@
     <row r="292" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.72410487745648966</v>
+        <v>0.29537243927502854</v>
       </c>
       <c r="B292" s="2">
         <v>543</v>
@@ -8904,7 +8905,7 @@
     <row r="293" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5204946605352001</v>
+        <v>0.19481237604866597</v>
       </c>
       <c r="B293" s="2">
         <v>513</v>
@@ -8928,7 +8929,7 @@
     <row r="294" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3791022258558524</v>
+        <v>0.52723564115380783</v>
       </c>
       <c r="B294" s="2">
         <v>516</v>
@@ -8952,7 +8953,7 @@
     <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10860487580269229</v>
+        <v>0.27498924131869684</v>
       </c>
       <c r="B295" s="2">
         <v>577</v>
@@ -8973,7 +8974,7 @@
     <row r="296" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31828758403638446</v>
+        <v>0.37518298776912296</v>
       </c>
       <c r="B296" s="2">
         <v>685</v>
@@ -8997,7 +8998,7 @@
     <row r="297" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1132083366018155E-2</v>
+        <v>0.69863158804325542</v>
       </c>
       <c r="B297" s="2">
         <v>539</v>
@@ -9152,7 +9153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+    <sheetView topLeftCell="A283" workbookViewId="0">
       <selection activeCell="D300" sqref="D300"/>
     </sheetView>
   </sheetViews>
